--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_17-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_17-54.xlsx
@@ -164,7 +164,7 @@
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>GASTROBIOTIC 200 MG 30 F.C.TAB</t>
+    <t>GASTROBIOTIC 200 MG 20 F.C.TAB. (N/A)</t>
   </si>
   <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
